--- a/likelihood_formulas_M3.xlsx
+++ b/likelihood_formulas_M3.xlsx
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7865</v>
+        <v>1.2045</v>
       </c>
       <c r="E2">
         <v>787</v>
       </c>
       <c r="F2">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G2">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H2">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I2">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J2">
-        <v>0.3848690234282585</v>
+        <v>0.2029972392006026</v>
       </c>
       <c r="K2">
-        <v>0.000646086838833522</v>
+        <v>0.0004186647846405233</v>
       </c>
       <c r="L2">
-        <v>0.0001243294053558541</v>
+        <v>4.249389771627053E-05</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -602,34 +602,34 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9590000000000001</v>
+        <v>-0.866</v>
       </c>
       <c r="E3">
         <v>605.67</v>
       </c>
       <c r="F3">
-        <v>0.2401086956521739</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G3">
-        <v>0.7024564120982987</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H3">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I3">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J3">
-        <v>0.3294904442551964</v>
+        <v>0.2645782773934067</v>
       </c>
       <c r="K3">
-        <v>0.002452319226016377</v>
+        <v>0.001828047907659831</v>
       </c>
       <c r="L3">
-        <v>0.0004040078756178478</v>
+        <v>0.0002418308832006297</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-0.866</v>
+        <v>0.7865</v>
       </c>
       <c r="E4">
         <v>566</v>
       </c>
       <c r="F4">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G4">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H4">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I4">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J4">
-        <v>0.1992473332915447</v>
+        <v>0.3334030436882156</v>
       </c>
       <c r="K4">
-        <v>0.002676448682464388</v>
+        <v>0.002716594395547477</v>
       </c>
       <c r="L4">
-        <v>0.0002666376313363488</v>
+        <v>0.0004528604199709385</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -678,34 +678,34 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1.078</v>
+        <v>0.9525</v>
       </c>
       <c r="E5">
         <v>361.23</v>
       </c>
       <c r="F5">
-        <v>0.2401086956521739</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G5">
-        <v>0.7024564120982987</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H5">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I5">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J5">
-        <v>0.2887853163890343</v>
+        <v>0.266773069370445</v>
       </c>
       <c r="K5">
-        <v>0.001308922865179074</v>
+        <v>0.001617569301000659</v>
       </c>
       <c r="L5">
-        <v>0.00018899885187479</v>
+        <v>0.0002157619636736755</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-0.8335</v>
+        <v>-0.873</v>
       </c>
       <c r="E6">
         <v>572.5</v>
       </c>
       <c r="F6">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G6">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H6">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I6">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J6">
-        <v>0.2095517177213045</v>
+        <v>0.2477472043680699</v>
       </c>
       <c r="K6">
-        <v>0.002651661641753627</v>
+        <v>0.002667666377545357</v>
       </c>
       <c r="L6">
-        <v>0.0002778301259225835</v>
+        <v>0.0003304534436117792</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -757,31 +757,31 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>-1.0935</v>
+        <v>0.2875</v>
       </c>
       <c r="E7">
         <v>515.6</v>
       </c>
       <c r="F7">
-        <v>-0.19525</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G7">
-        <v>0.7413953839285714</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H7">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I7">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J7">
-        <v>0.268884638334343</v>
+        <v>0.4398039512531491</v>
       </c>
       <c r="K7">
-        <v>0.002302064154196179</v>
+        <v>0.002135272530020021</v>
       </c>
       <c r="L7">
-        <v>0.0003094948437617473</v>
+        <v>0.0004695506478525569</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5565</v>
+        <v>1.175</v>
       </c>
       <c r="E8">
         <v>524.11</v>
       </c>
       <c r="F8">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G8">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H8">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I8">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J8">
-        <v>0.44325723862875</v>
+        <v>0.2118214453195885</v>
       </c>
       <c r="K8">
-        <v>0.002710692917079797</v>
+        <v>0.002894950908838696</v>
       </c>
       <c r="L8">
-        <v>0.0006007671285976511</v>
+        <v>0.0003066063428197345</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>-0.886</v>
+        <v>0.8565</v>
       </c>
       <c r="E9">
         <v>487.4</v>
       </c>
       <c r="F9">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G9">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H9">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I9">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J9">
-        <v>0.1930153318982606</v>
+        <v>0.3117742692165829</v>
       </c>
       <c r="K9">
-        <v>0.002562770502289248</v>
+        <v>0.002836243804404803</v>
       </c>
       <c r="L9">
-        <v>0.0002473269995392155</v>
+        <v>0.0004421339197191842</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -868,34 +868,34 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>-0.8155</v>
+        <v>-0.158</v>
       </c>
       <c r="E10">
         <v>603.33</v>
       </c>
       <c r="F10">
-        <v>0.2401086956521739</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G10">
-        <v>0.7024564120982987</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H10">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I10">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J10">
-        <v>0.2153469598361554</v>
+        <v>0.4444624631343972</v>
       </c>
       <c r="K10">
-        <v>0.002470027016318478</v>
+        <v>0.001840879833554129</v>
       </c>
       <c r="L10">
-        <v>0.000265956404338677</v>
+        <v>0.0004091009925779537</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -909,31 +909,31 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1.175</v>
+        <v>-0.886</v>
       </c>
       <c r="E11">
         <v>389</v>
       </c>
       <c r="F11">
-        <v>-0.19525</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G11">
-        <v>0.7413953839285714</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H11">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I11">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J11">
-        <v>0.1306048703383359</v>
+        <v>0.2582523513871741</v>
       </c>
       <c r="K11">
-        <v>0.002177361645460249</v>
+        <v>0.001788811847718346</v>
       </c>
       <c r="L11">
-        <v>0.0001421870176925007</v>
+        <v>0.0002309824329312491</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.0325</v>
+        <v>-0.8935</v>
       </c>
       <c r="E12">
         <v>664</v>
       </c>
       <c r="F12">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G12">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H12">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I12">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J12">
-        <v>0.3044425706317229</v>
+        <v>0.2413135221868268</v>
       </c>
       <c r="K12">
-        <v>0.001887391801572876</v>
+        <v>0.001629881623338272</v>
       </c>
       <c r="L12">
-        <v>0.0002873012059300424</v>
+        <v>0.0001966562376376707</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>-1.086</v>
+        <v>-0.776</v>
       </c>
       <c r="E13">
         <v>467</v>
       </c>
       <c r="F13">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G13">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H13">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I13">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J13">
-        <v>0.1361391976326897</v>
+        <v>0.2784992428694513</v>
       </c>
       <c r="K13">
-        <v>0.002417536004435413</v>
+        <v>0.00271915911492238</v>
       </c>
       <c r="L13">
-        <v>0.0001645607059459878</v>
+        <v>0.0003786418773737251</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-0.8935</v>
+        <v>0.9165</v>
       </c>
       <c r="E14">
         <v>564</v>
       </c>
       <c r="F14">
-        <v>-0.19525</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G14">
-        <v>0.7413953839285714</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H14">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I14">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J14">
-        <v>0.3334922496506744</v>
+        <v>0.292849904090963</v>
       </c>
       <c r="K14">
-        <v>0.002013332978804932</v>
+        <v>0.002730602560262292</v>
       </c>
       <c r="L14">
-        <v>0.0003357154721987752</v>
+        <v>0.0003998283489416751</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7185</v>
+        <v>0.619</v>
       </c>
       <c r="E15">
         <v>484.19</v>
       </c>
       <c r="F15">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G15">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H15">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I15">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J15">
-        <v>0.4044403156181677</v>
+        <v>0.381340216058528</v>
       </c>
       <c r="K15">
-        <v>0.002542620202769479</v>
+        <v>0.002821600832076969</v>
       </c>
       <c r="L15">
-        <v>0.0005141690586526089</v>
+        <v>0.000537994935467577</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1096,34 +1096,34 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1.2045</v>
+        <v>0.6525000000000001</v>
       </c>
       <c r="E16">
         <v>672.08</v>
       </c>
       <c r="F16">
-        <v>0.2401086956521739</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G16">
-        <v>0.7024564120982987</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H16">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I16">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J16">
-        <v>0.2455262632937161</v>
+        <v>0.3591453435957837</v>
       </c>
       <c r="K16">
-        <v>0.001797537833140122</v>
+        <v>0.001403428487557328</v>
       </c>
       <c r="L16">
-        <v>0.0002206713736499888</v>
+        <v>0.0002520174031879438</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1134,34 +1134,34 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.7985</v>
+        <v>-1.086</v>
       </c>
       <c r="E17">
         <v>664.8</v>
       </c>
       <c r="F17">
-        <v>0.2401086956521739</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G17">
-        <v>0.7024564120982987</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H17">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I17">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J17">
-        <v>0.3812543075388676</v>
+        <v>0.1969772472354962</v>
       </c>
       <c r="K17">
-        <v>0.00187855360807934</v>
+        <v>0.001453681810027525</v>
       </c>
       <c r="L17">
-        <v>0.000358103327511465</v>
+        <v>0.0001431711206477676</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>-0.9385</v>
+        <v>0.9590000000000001</v>
       </c>
       <c r="E18">
         <v>533</v>
       </c>
       <c r="F18">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G18">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H18">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I18">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J18">
-        <v>0.1770876749697854</v>
+        <v>0.279343096182044</v>
       </c>
       <c r="K18">
-        <v>0.002721938876712056</v>
+        <v>0.002878363831050812</v>
       </c>
       <c r="L18">
-        <v>0.0002410109135434038</v>
+        <v>0.0004020255322520719</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1213,31 +1213,31 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.2875</v>
+        <v>1.0325</v>
       </c>
       <c r="E19">
         <v>695.67</v>
       </c>
       <c r="F19">
-        <v>-0.19525</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G19">
-        <v>0.7413953839285714</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H19">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I19">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J19">
-        <v>0.3959385999443756</v>
+        <v>0.2415745796754493</v>
       </c>
       <c r="K19">
-        <v>0.0009052600524279613</v>
+        <v>0.001239143183242771</v>
       </c>
       <c r="L19">
-        <v>0.0001792136988719495</v>
+        <v>0.0001496727468247853</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1248,34 +1248,34 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1.2175</v>
+        <v>-0.8195</v>
       </c>
       <c r="E20">
         <v>437</v>
       </c>
       <c r="F20">
-        <v>-0.19525</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G20">
-        <v>0.7413953839285714</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H20">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I20">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J20">
-        <v>0.1205916073476053</v>
+        <v>0.2646672831718254</v>
       </c>
       <c r="K20">
-        <v>0.002383112996370328</v>
+        <v>0.002455643127612019</v>
       </c>
       <c r="L20">
-        <v>0.0001436917133616328</v>
+        <v>0.0003249641975123187</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-0.873</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="E21">
         <v>765.75</v>
       </c>
       <c r="F21">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G21">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H21">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I21">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J21">
-        <v>0.1970563342812192</v>
+        <v>0.3079628210145719</v>
       </c>
       <c r="K21">
-        <v>0.0008177357238427914</v>
+        <v>0.0005605963392627382</v>
       </c>
       <c r="L21">
-        <v>8.057000207562993E-05</v>
+        <v>8.632141504489745E-05</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1324,34 +1324,34 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-0.7004999999999999</v>
+        <v>0.7595000000000001</v>
       </c>
       <c r="E22">
         <v>637.25</v>
       </c>
       <c r="F22">
-        <v>-0.19525</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G22">
-        <v>0.7413953839285714</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H22">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I22">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J22">
-        <v>0.3900469623055247</v>
+        <v>0.341552376510002</v>
       </c>
       <c r="K22">
-        <v>0.001395956711525935</v>
+        <v>0.001970518740590956</v>
       </c>
       <c r="L22">
-        <v>0.0002722443374203503</v>
+        <v>0.0003365176794031686</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1362,34 +1362,34 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>-0.8195</v>
+        <v>0.899</v>
       </c>
       <c r="E23">
         <v>819</v>
       </c>
       <c r="F23">
-        <v>0.2401086956521739</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G23">
-        <v>0.7024564120982987</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H23">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I23">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J23">
-        <v>0.2140539635162102</v>
+        <v>0.2837429863771165</v>
       </c>
       <c r="K23">
-        <v>0.0004354678811205583</v>
+        <v>0.0004977553921501675</v>
       </c>
       <c r="L23">
-        <v>4.660681296893068E-05</v>
+        <v>7.061730072700064E-05</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1400,34 +1400,34 @@
         <v>33</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-0.8205</v>
+        <v>0.8125</v>
       </c>
       <c r="E24">
         <v>665</v>
       </c>
       <c r="F24">
-        <v>-0.19525</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G24">
-        <v>0.7413953839285714</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H24">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I24">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J24">
-        <v>0.3559454553093032</v>
+        <v>0.3254443742683569</v>
       </c>
       <c r="K24">
-        <v>0.001154252858421497</v>
+        <v>0.001617172871509755</v>
       </c>
       <c r="L24">
-        <v>0.0002054255296164522</v>
+        <v>0.0002631499066261271</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1438,34 +1438,34 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-0.776</v>
+        <v>0.7185</v>
       </c>
       <c r="E25">
         <v>334.75</v>
       </c>
       <c r="F25">
-        <v>-0.19525</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G25">
-        <v>0.7413953839285714</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H25">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I25">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J25">
-        <v>0.3690642478329556</v>
+        <v>0.3536609159170859</v>
       </c>
       <c r="K25">
-        <v>0.001775979456437196</v>
+        <v>0.001213837129206114</v>
       </c>
       <c r="L25">
-        <v>0.0003277252611283876</v>
+        <v>0.0002146433754446001</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1479,31 +1479,31 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0.9165</v>
+        <v>-0.885</v>
       </c>
       <c r="E26">
         <v>307.83</v>
       </c>
       <c r="F26">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G26">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H26">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I26">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J26">
-        <v>0.3436954787925112</v>
+        <v>0.2439769800359151</v>
       </c>
       <c r="K26">
-        <v>0.0007876697033301009</v>
+        <v>0.0009198315171176667</v>
       </c>
       <c r="L26">
-        <v>0.0001353592579081971</v>
+        <v>0.0001122088578441112</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1514,34 +1514,34 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0.899</v>
+        <v>1.078</v>
       </c>
       <c r="E27">
         <v>442</v>
       </c>
       <c r="F27">
-        <v>0.2401086956521739</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G27">
-        <v>0.7024564120982987</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H27">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I27">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J27">
-        <v>0.3494598564634598</v>
+        <v>0.2274664472746304</v>
       </c>
       <c r="K27">
-        <v>0.002191963297416264</v>
+        <v>0.002037852580187526</v>
       </c>
       <c r="L27">
-        <v>0.0003830015896441298</v>
+        <v>0.0002317715432423478</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1552,34 +1552,34 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0.6525000000000001</v>
+        <v>1.2175</v>
       </c>
       <c r="E28">
         <v>260.42</v>
       </c>
       <c r="F28">
-        <v>0.2401086956521739</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G28">
-        <v>0.7024564120982987</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H28">
-        <v>538.5447826086956</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I28">
-        <v>21450.67352930057</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J28">
-        <v>0.4217241230406049</v>
+        <v>0.1859703688796758</v>
       </c>
       <c r="K28">
-        <v>0.0004488835702299391</v>
+        <v>0.00093126578295219</v>
       </c>
       <c r="L28">
-        <v>9.465251500127841E-05</v>
+        <v>8.659392059031942E-05</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1593,31 +1593,31 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0.8034999999999999</v>
+        <v>-0.9385</v>
       </c>
       <c r="E29">
         <v>448.82</v>
       </c>
       <c r="F29">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G29">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H29">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I29">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J29">
-        <v>0.3797352387222476</v>
+        <v>0.2273296794601091</v>
       </c>
       <c r="K29">
-        <v>0.002257840397276644</v>
+        <v>0.002570824340262102</v>
       </c>
       <c r="L29">
-        <v>0.0004286907811282903</v>
+        <v>0.0002922123366100151</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1631,31 +1631,31 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>-0.6830000000000001</v>
+        <v>-0.8205</v>
       </c>
       <c r="E30">
         <v>455.38</v>
       </c>
       <c r="F30">
-        <v>-0.19525</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G30">
-        <v>0.7413953839285714</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H30">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I30">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J30">
-        <v>0.394644990780697</v>
+        <v>0.2790072998467366</v>
       </c>
       <c r="K30">
-        <v>0.00241237430747089</v>
+        <v>0.002079235380527547</v>
       </c>
       <c r="L30">
-        <v>0.0004760157181657198</v>
+        <v>0.0002900609246333963</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1669,31 +1669,31 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0.9525</v>
+        <v>-0.8155</v>
       </c>
       <c r="E31">
         <v>89.5</v>
       </c>
       <c r="F31">
-        <v>-0.19525</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G31">
-        <v>0.7413953839285714</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H31">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I31">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J31">
-        <v>0.1905690720411838</v>
+        <v>0.2805936789492554</v>
       </c>
       <c r="K31">
-        <v>0.0001838516060586433</v>
+        <v>0.0001869713707004265</v>
       </c>
       <c r="L31">
-        <v>1.751821497993847E-05</v>
+        <v>2.623149238150885E-05</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1707,31 +1707,31 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>-1.1685</v>
+        <v>-0.8335</v>
       </c>
       <c r="E32">
         <v>437.64</v>
       </c>
       <c r="F32">
-        <v>-0.19525</v>
+        <v>0.0467142857142857</v>
       </c>
       <c r="G32">
-        <v>0.7413953839285714</v>
+        <v>0.7625757040816327</v>
       </c>
       <c r="H32">
-        <v>464.2957142857144</v>
+        <v>500.8085714285715</v>
       </c>
       <c r="I32">
-        <v>27268.71972448979</v>
+        <v>34687.60095510204</v>
       </c>
       <c r="J32">
-        <v>0.244599310597363</v>
+        <v>0.2748823841533381</v>
       </c>
       <c r="K32">
-        <v>0.002384622278056376</v>
+        <v>0.002022290419583859</v>
       </c>
       <c r="L32">
-        <v>0.0002916384826238515</v>
+        <v>0.0002779460059928328</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1745,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.8565</v>
+        <v>0.7985</v>
       </c>
       <c r="E33">
         <v>354</v>
       </c>
       <c r="F33">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G33">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H33">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I33">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J33">
-        <v>0.3632049418937049</v>
+        <v>0.3297423314034877</v>
       </c>
       <c r="K33">
-        <v>0.001231486220846087</v>
+        <v>0.001445766792316066</v>
       </c>
       <c r="L33">
-        <v>0.0002236409406426507</v>
+        <v>0.0002383652563820208</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1780,34 +1780,34 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-0.158</v>
+        <v>-1.1685</v>
       </c>
       <c r="E34">
         <v>605</v>
       </c>
       <c r="F34">
-        <v>-0.19525</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G34">
-        <v>0.7413953839285714</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H34">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I34">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J34">
-        <v>0.4628909861672521</v>
+        <v>0.1607264882485248</v>
       </c>
       <c r="K34">
-        <v>0.001680443724115564</v>
+        <v>0.002355729053604043</v>
       </c>
       <c r="L34">
-        <v>0.0003889311263272116</v>
+        <v>0.0001893140290253992</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1818,34 +1818,34 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.8125</v>
+        <v>-1.0935</v>
       </c>
       <c r="E35">
         <v>217</v>
       </c>
       <c r="F35">
-        <v>-0.19525</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G35">
-        <v>0.7413953839285714</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H35">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I35">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J35">
-        <v>0.2335811611018114</v>
+        <v>0.1813449036472676</v>
       </c>
       <c r="K35">
-        <v>0.0007871992281499778</v>
+        <v>0.0002720238697680479</v>
       </c>
       <c r="L35">
-        <v>9.193745486486078E-05</v>
+        <v>2.466507122642176E-05</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1859,31 +1859,31 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.619</v>
+        <v>0.8034999999999999</v>
       </c>
       <c r="E36">
         <v>415.73</v>
       </c>
       <c r="F36">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G36">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H36">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I36">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J36">
-        <v>0.4297567774394638</v>
+        <v>0.3282105799802813</v>
       </c>
       <c r="K36">
-        <v>0.001916452971972902</v>
+        <v>0.002219569629705294</v>
       </c>
       <c r="L36">
-        <v>0.0004118043266746788</v>
+        <v>0.0003642431177360964</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1897,31 +1897,31 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0.7595000000000001</v>
+        <v>0.5565</v>
       </c>
       <c r="E37">
         <v>580.67</v>
       </c>
       <c r="F37">
-        <v>0.2401086956521739</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G37">
-        <v>0.7024564120982987</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H37">
-        <v>538.5447826086956</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I37">
-        <v>21450.67352930057</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J37">
-        <v>0.3928333908095425</v>
+        <v>0.3971711998187932</v>
       </c>
       <c r="K37">
-        <v>0.002613519956710519</v>
+        <v>0.002599174240376039</v>
       </c>
       <c r="L37">
-        <v>0.000513338953271501</v>
+        <v>0.000516158575794126</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1932,34 +1932,34 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-0.885</v>
+        <v>-0.7004999999999999</v>
       </c>
       <c r="E38">
         <v>457.35</v>
       </c>
       <c r="F38">
-        <v>-0.19525</v>
+        <v>0.09282608695652177</v>
       </c>
       <c r="G38">
-        <v>0.7413953839285714</v>
+        <v>0.7604762741020793</v>
       </c>
       <c r="H38">
-        <v>464.2957142857144</v>
+        <v>516.3195652173913</v>
       </c>
       <c r="I38">
-        <v>27268.71972448979</v>
+        <v>18929.76967372401</v>
       </c>
       <c r="J38">
-        <v>0.3361563045306442</v>
+        <v>0.3024525731906079</v>
       </c>
       <c r="K38">
-        <v>0.002413756863995893</v>
+        <v>0.002645131865157812</v>
       </c>
       <c r="L38">
-        <v>0.000405699793718168</v>
+        <v>0.0004000134695227263</v>
       </c>
     </row>
   </sheetData>

--- a/likelihood_formulas_M3.xlsx
+++ b/likelihood_formulas_M3.xlsx
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.2045</v>
+        <v>1.078</v>
       </c>
       <c r="E2">
         <v>787</v>
       </c>
       <c r="F2">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G2">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H2">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I2">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J2">
-        <v>0.2029972392006026</v>
+        <v>0.2218081509276456</v>
       </c>
       <c r="K2">
-        <v>0.0004186647846405233</v>
+        <v>0.0007766707070766589</v>
       </c>
       <c r="L2">
-        <v>4.249389771627053E-05</v>
+        <v>8.613594670817038E-05</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -602,34 +602,34 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.866</v>
+        <v>-0.158</v>
       </c>
       <c r="E3">
         <v>605.67</v>
       </c>
       <c r="F3">
-        <v>0.0467142857142857</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G3">
-        <v>0.7625757040816327</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H3">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I3">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J3">
-        <v>0.2645782773934067</v>
+        <v>0.4494943539283914</v>
       </c>
       <c r="K3">
-        <v>0.001828047907659831</v>
+        <v>0.002002052752595503</v>
       </c>
       <c r="L3">
-        <v>0.0002418308832006297</v>
+        <v>0.0004499557042792366</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.7865</v>
+        <v>0.8565</v>
       </c>
       <c r="E4">
         <v>566</v>
       </c>
       <c r="F4">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G4">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H4">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I4">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J4">
-        <v>0.3334030436882156</v>
+        <v>0.2923483315652065</v>
       </c>
       <c r="K4">
-        <v>0.002716594395547477</v>
+        <v>0.002153538099781536</v>
       </c>
       <c r="L4">
-        <v>0.0004528604199709385</v>
+        <v>0.0003147916352166186</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -678,34 +678,34 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9525</v>
+        <v>-0.7004999999999999</v>
       </c>
       <c r="E5">
         <v>361.23</v>
       </c>
       <c r="F5">
-        <v>0.0467142857142857</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G5">
-        <v>0.7625757040816327</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H5">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I5">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J5">
-        <v>0.266773069370445</v>
+        <v>0.322462101258693</v>
       </c>
       <c r="K5">
-        <v>0.001617569301000659</v>
+        <v>0.001458359751044404</v>
       </c>
       <c r="L5">
-        <v>0.0002157619636736755</v>
+        <v>0.0002351328748564414</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-0.873</v>
+        <v>0.2875</v>
       </c>
       <c r="E6">
         <v>572.5</v>
       </c>
       <c r="F6">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G6">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H6">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I6">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J6">
-        <v>0.2477472043680699</v>
+        <v>0.4405081015324698</v>
       </c>
       <c r="K6">
-        <v>0.002667666377545357</v>
+        <v>0.002134989469137696</v>
       </c>
       <c r="L6">
-        <v>0.0003304534436117792</v>
+        <v>0.000470240078920831</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -754,34 +754,34 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2875</v>
+        <v>-0.9385</v>
       </c>
       <c r="E7">
         <v>515.6</v>
       </c>
       <c r="F7">
-        <v>0.0467142857142857</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G7">
-        <v>0.7625757040816327</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H7">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I7">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J7">
-        <v>0.4398039512531491</v>
+        <v>0.2463224265731103</v>
       </c>
       <c r="K7">
-        <v>0.002135272530020021</v>
+        <v>0.002204018224676422</v>
       </c>
       <c r="L7">
-        <v>0.0004695506478525569</v>
+        <v>0.0002714495586568274</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.175</v>
+        <v>-0.885</v>
       </c>
       <c r="E8">
         <v>524.11</v>
       </c>
       <c r="F8">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G8">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H8">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I8">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J8">
-        <v>0.2118214453195885</v>
+        <v>0.2634218459225235</v>
       </c>
       <c r="K8">
-        <v>0.002894950908838696</v>
+        <v>0.002207426797913534</v>
       </c>
       <c r="L8">
-        <v>0.0003066063428197345</v>
+        <v>0.0002907422209226143</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -830,34 +830,34 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.8565</v>
+        <v>0.5565</v>
       </c>
       <c r="E9">
         <v>487.4</v>
       </c>
       <c r="F9">
-        <v>0.09282608695652177</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G9">
-        <v>0.7604762741020793</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H9">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I9">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J9">
-        <v>0.3117742692165829</v>
+        <v>0.4080401550507186</v>
       </c>
       <c r="K9">
-        <v>0.002836243804404803</v>
+        <v>0.00375881985169123</v>
       </c>
       <c r="L9">
-        <v>0.0004421339197191842</v>
+        <v>0.0007668747175459042</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -871,31 +871,31 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>-0.158</v>
+        <v>-1.0935</v>
       </c>
       <c r="E10">
         <v>603.33</v>
       </c>
       <c r="F10">
-        <v>0.0467142857142857</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G10">
-        <v>0.7625757040816327</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H10">
-        <v>500.8085714285715</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I10">
-        <v>34687.60095510204</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J10">
-        <v>0.4444624631343972</v>
+        <v>0.1669372924942746</v>
       </c>
       <c r="K10">
-        <v>0.001840879833554129</v>
+        <v>0.002024358055023387</v>
       </c>
       <c r="L10">
-        <v>0.0004091009925779537</v>
+        <v>0.00016897042637229</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -909,31 +909,31 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>-0.886</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="E11">
         <v>389</v>
       </c>
       <c r="F11">
-        <v>0.0467142857142857</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G11">
-        <v>0.7625757040816327</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H11">
-        <v>500.8085714285715</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I11">
-        <v>34687.60095510204</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J11">
-        <v>0.2582523513871741</v>
+        <v>0.2900953660141034</v>
       </c>
       <c r="K11">
-        <v>0.001788811847718346</v>
+        <v>0.002491485100271271</v>
       </c>
       <c r="L11">
-        <v>0.0002309824329312491</v>
+        <v>0.0003613841410409396</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>-0.8935</v>
+        <v>1.175</v>
       </c>
       <c r="E12">
         <v>664</v>
       </c>
       <c r="F12">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G12">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H12">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I12">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J12">
-        <v>0.2413135221868268</v>
+        <v>0.1925442100805093</v>
       </c>
       <c r="K12">
-        <v>0.001629881623338272</v>
+        <v>0.001647750029712754</v>
       </c>
       <c r="L12">
-        <v>0.0001966562376376707</v>
+        <v>0.000158632363940589</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -982,34 +982,34 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>-0.776</v>
+        <v>-0.8155</v>
       </c>
       <c r="E13">
         <v>467</v>
       </c>
       <c r="F13">
-        <v>0.09282608695652177</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G13">
-        <v>0.7604762741020793</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H13">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I13">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J13">
-        <v>0.2784992428694513</v>
+        <v>0.2485770863875782</v>
       </c>
       <c r="K13">
-        <v>0.00271915911492238</v>
+        <v>0.003704349918550382</v>
       </c>
       <c r="L13">
-        <v>0.0003786418773737251</v>
+        <v>0.0004604082548566584</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0.9165</v>
+        <v>-0.873</v>
       </c>
       <c r="E14">
         <v>564</v>
       </c>
       <c r="F14">
-        <v>0.09282608695652177</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G14">
-        <v>0.7604762741020793</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H14">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I14">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J14">
-        <v>0.292849904090963</v>
+        <v>0.2308190165259935</v>
       </c>
       <c r="K14">
-        <v>0.002730602560262292</v>
+        <v>0.002854736933616675</v>
       </c>
       <c r="L14">
-        <v>0.0003998283489416751</v>
+        <v>0.0003294637857289157</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.619</v>
+        <v>1.0325</v>
       </c>
       <c r="E15">
         <v>484.19</v>
       </c>
       <c r="F15">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G15">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H15">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I15">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J15">
-        <v>0.381340216058528</v>
+        <v>0.236007876722867</v>
       </c>
       <c r="K15">
-        <v>0.002821600832076969</v>
+        <v>0.002149815618322943</v>
       </c>
       <c r="L15">
-        <v>0.000537994935467577</v>
+        <v>0.0002536867097130276</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1096,34 +1096,34 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.6525000000000001</v>
+        <v>-0.8335</v>
       </c>
       <c r="E16">
         <v>672.08</v>
       </c>
       <c r="F16">
-        <v>0.0467142857142857</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G16">
-        <v>0.7625757040816327</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H16">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I16">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J16">
-        <v>0.3591453435957837</v>
+        <v>0.279992869259803</v>
       </c>
       <c r="K16">
-        <v>0.001403428487557328</v>
+        <v>0.001590767958529565</v>
       </c>
       <c r="L16">
-        <v>0.0002520174031879438</v>
+        <v>0.0002227018425176261</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1137,31 +1137,31 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>-1.086</v>
+        <v>0.7865</v>
       </c>
       <c r="E17">
         <v>664.8</v>
       </c>
       <c r="F17">
-        <v>0.0467142857142857</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G17">
-        <v>0.7625757040816327</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H17">
-        <v>500.8085714285715</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I17">
-        <v>34687.60095510204</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J17">
-        <v>0.1969772472354962</v>
+        <v>0.349081822036577</v>
       </c>
       <c r="K17">
-        <v>0.001453681810027525</v>
+        <v>0.0008984283018948918</v>
       </c>
       <c r="L17">
-        <v>0.0001431711206477676</v>
+        <v>0.0001568124942973483</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9590000000000001</v>
+        <v>0.6525000000000001</v>
       </c>
       <c r="E18">
         <v>533</v>
       </c>
       <c r="F18">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G18">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H18">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I18">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J18">
-        <v>0.279343096182044</v>
+        <v>0.3558436928339854</v>
       </c>
       <c r="K18">
-        <v>0.002878363831050812</v>
+        <v>0.002205763416961644</v>
       </c>
       <c r="L18">
-        <v>0.0004020255322520719</v>
+        <v>0.0003924534999048706</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1210,34 +1210,34 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1.0325</v>
+        <v>0.7185</v>
       </c>
       <c r="E19">
         <v>695.67</v>
       </c>
       <c r="F19">
-        <v>0.0467142857142857</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G19">
-        <v>0.7625757040816327</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H19">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I19">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J19">
-        <v>0.2415745796754493</v>
+        <v>0.3359509427485166</v>
       </c>
       <c r="K19">
-        <v>0.001239143183242771</v>
+        <v>0.001419108583427478</v>
       </c>
       <c r="L19">
-        <v>0.0001496727468247853</v>
+        <v>0.0002383754332324866</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>-0.8195</v>
+        <v>-0.886</v>
       </c>
       <c r="E20">
         <v>437</v>
       </c>
       <c r="F20">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G20">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H20">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I20">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J20">
-        <v>0.2646672831718254</v>
+        <v>0.2631007852535654</v>
       </c>
       <c r="K20">
-        <v>0.002455643127612019</v>
+        <v>0.001956559687793658</v>
       </c>
       <c r="L20">
-        <v>0.0003249641975123187</v>
+        <v>0.0002573861951269911</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-0.6830000000000001</v>
+        <v>-1.1685</v>
       </c>
       <c r="E21">
         <v>765.75</v>
       </c>
       <c r="F21">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G21">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H21">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I21">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J21">
-        <v>0.3079628210145719</v>
+        <v>0.1767454715857837</v>
       </c>
       <c r="K21">
-        <v>0.0005605963392627382</v>
+        <v>0.0009142123889049103</v>
       </c>
       <c r="L21">
-        <v>8.632141504489745E-05</v>
+        <v>8.079144990328212E-05</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1324,34 +1324,34 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0.7595000000000001</v>
+        <v>1.2175</v>
       </c>
       <c r="E22">
         <v>637.25</v>
       </c>
       <c r="F22">
-        <v>0.09282608695652177</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G22">
-        <v>0.7604762741020793</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H22">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I22">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J22">
-        <v>0.341552376510002</v>
+        <v>0.216580217538293</v>
       </c>
       <c r="K22">
-        <v>0.001970518740590956</v>
+        <v>0.001347804082810071</v>
       </c>
       <c r="L22">
-        <v>0.0003365176794031686</v>
+        <v>0.0001459538507270023</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1362,34 +1362,34 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>0.899</v>
+        <v>-1.086</v>
       </c>
       <c r="E23">
         <v>819</v>
       </c>
       <c r="F23">
-        <v>0.0467142857142857</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G23">
-        <v>0.7625757040816327</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H23">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I23">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J23">
-        <v>0.2837429863771165</v>
+        <v>0.2007121328136323</v>
       </c>
       <c r="K23">
-        <v>0.0004977553921501675</v>
+        <v>0.0005919370886033759</v>
       </c>
       <c r="L23">
-        <v>7.061730072700064E-05</v>
+        <v>5.94044777725378E-05</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1403,31 +1403,31 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.8125</v>
+        <v>-0.8205</v>
       </c>
       <c r="E24">
         <v>665</v>
       </c>
       <c r="F24">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G24">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H24">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I24">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J24">
-        <v>0.3254443742683569</v>
+        <v>0.2841794770206726</v>
       </c>
       <c r="K24">
-        <v>0.001617172871509755</v>
+        <v>0.001640766410039123</v>
       </c>
       <c r="L24">
-        <v>0.0002631499066261271</v>
+        <v>0.0002331360701590023</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1438,34 +1438,34 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0.7185</v>
+        <v>0.7595000000000001</v>
       </c>
       <c r="E25">
         <v>334.75</v>
       </c>
       <c r="F25">
-        <v>0.09282608695652177</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G25">
-        <v>0.7604762741020793</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H25">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I25">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J25">
-        <v>0.3536609159170859</v>
+        <v>0.3568029592621747</v>
       </c>
       <c r="K25">
-        <v>0.001213837129206114</v>
+        <v>0.001374972117058888</v>
       </c>
       <c r="L25">
-        <v>0.0002146433754446001</v>
+        <v>0.0002452970601347943</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1476,34 +1476,34 @@
         <v>35</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>-0.885</v>
+        <v>-0.776</v>
       </c>
       <c r="E26">
         <v>307.83</v>
       </c>
       <c r="F26">
-        <v>0.09282608695652177</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G26">
-        <v>0.7604762741020793</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H26">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I26">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J26">
-        <v>0.2439769800359151</v>
+        <v>0.26091190353275</v>
       </c>
       <c r="K26">
-        <v>0.0009198315171176667</v>
+        <v>0.0009290694398948455</v>
       </c>
       <c r="L26">
-        <v>0.0001122088578441112</v>
+        <v>0.000121202638038535</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1514,34 +1514,34 @@
         <v>36</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1.078</v>
+        <v>0.9590000000000001</v>
       </c>
       <c r="E27">
         <v>442</v>
       </c>
       <c r="F27">
-        <v>0.0467142857142857</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G27">
-        <v>0.7625757040816327</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H27">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I27">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J27">
-        <v>0.2274664472746304</v>
+        <v>0.2593769358155739</v>
       </c>
       <c r="K27">
-        <v>0.002037852580187526</v>
+        <v>0.001982577043934748</v>
       </c>
       <c r="L27">
-        <v>0.0002317715432423478</v>
+        <v>0.0002571173793370466</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1552,34 +1552,34 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1.2175</v>
+        <v>-0.8935</v>
       </c>
       <c r="E28">
         <v>260.42</v>
       </c>
       <c r="F28">
-        <v>0.0467142857142857</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G28">
-        <v>0.7625757040816327</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H28">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I28">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J28">
-        <v>0.1859703688796758</v>
+        <v>0.2606942091909677</v>
       </c>
       <c r="K28">
-        <v>0.00093126578295219</v>
+        <v>0.0007511084719421207</v>
       </c>
       <c r="L28">
-        <v>8.659392059031942E-05</v>
+        <v>9.790481455479365E-05</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1590,34 +1590,34 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>-0.9385</v>
+        <v>1.2045</v>
       </c>
       <c r="E29">
         <v>448.82</v>
       </c>
       <c r="F29">
-        <v>0.09282608695652177</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G29">
-        <v>0.7604762741020793</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H29">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I29">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J29">
-        <v>0.2273296794601091</v>
+        <v>0.220497362994497</v>
       </c>
       <c r="K29">
-        <v>0.002570824340262102</v>
+        <v>0.003544347962998982</v>
       </c>
       <c r="L29">
-        <v>0.0002922123366100151</v>
+        <v>0.0003907596896880964</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1631,31 +1631,31 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>-0.8205</v>
+        <v>0.8034999999999999</v>
       </c>
       <c r="E30">
         <v>455.38</v>
       </c>
       <c r="F30">
-        <v>0.0467142857142857</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G30">
-        <v>0.7625757040816327</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H30">
-        <v>500.8085714285715</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I30">
-        <v>34687.60095510204</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J30">
-        <v>0.2790072998467366</v>
+        <v>0.3441392028744556</v>
       </c>
       <c r="K30">
-        <v>0.002079235380527547</v>
+        <v>0.00361347989376473</v>
       </c>
       <c r="L30">
-        <v>0.0002900609246333963</v>
+        <v>0.0006217700451215334</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1666,34 +1666,34 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-0.8155</v>
+        <v>0.7985</v>
       </c>
       <c r="E31">
         <v>89.5</v>
       </c>
       <c r="F31">
-        <v>0.0467142857142857</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G31">
-        <v>0.7625757040816327</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H31">
-        <v>500.8085714285715</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I31">
-        <v>34687.60095510204</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J31">
-        <v>0.2805936789492554</v>
+        <v>0.3108972592602556</v>
       </c>
       <c r="K31">
-        <v>0.0001869713707004265</v>
+        <v>0.0001197665300230672</v>
       </c>
       <c r="L31">
-        <v>2.623149238150885E-05</v>
+        <v>1.861754296764136E-05</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1707,31 +1707,31 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>-0.8335</v>
+        <v>0.899</v>
       </c>
       <c r="E32">
         <v>437.64</v>
       </c>
       <c r="F32">
-        <v>0.0467142857142857</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G32">
-        <v>0.7625757040816327</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H32">
-        <v>500.8085714285715</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I32">
-        <v>34687.60095510204</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J32">
-        <v>0.2748823841533381</v>
+        <v>0.3154388776041464</v>
       </c>
       <c r="K32">
-        <v>0.002022290419583859</v>
+        <v>0.003399491351569605</v>
       </c>
       <c r="L32">
-        <v>0.0002779460059928328</v>
+        <v>0.0005361658681820594</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1745,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.7985</v>
+        <v>0.619</v>
       </c>
       <c r="E33">
         <v>354</v>
       </c>
       <c r="F33">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G33">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H33">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I33">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J33">
-        <v>0.3297423314034877</v>
+        <v>0.3655752487057839</v>
       </c>
       <c r="K33">
-        <v>0.001445766792316066</v>
+        <v>0.00140506505815771</v>
       </c>
       <c r="L33">
-        <v>0.0002383652563820208</v>
+        <v>0.0002568285040419057</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1783,31 +1783,31 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-1.1685</v>
+        <v>-0.866</v>
       </c>
       <c r="E34">
         <v>605</v>
       </c>
       <c r="F34">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G34">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H34">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I34">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J34">
-        <v>0.1607264882485248</v>
+        <v>0.2695288113114986</v>
       </c>
       <c r="K34">
-        <v>0.002355729053604043</v>
+        <v>0.002005322627863968</v>
       </c>
       <c r="L34">
-        <v>0.0001893140290253992</v>
+        <v>0.000270246112092113</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1821,31 +1821,31 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>-1.0935</v>
+        <v>0.9525</v>
       </c>
       <c r="E35">
         <v>217</v>
       </c>
       <c r="F35">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G35">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H35">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I35">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J35">
-        <v>0.1813449036472676</v>
+        <v>0.2614612490896382</v>
       </c>
       <c r="K35">
-        <v>0.0002720238697680479</v>
+        <v>0.0005128024280676871</v>
       </c>
       <c r="L35">
-        <v>2.466507122642176E-05</v>
+        <v>6.703898168938842E-05</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1856,34 +1856,34 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0.8034999999999999</v>
+        <v>0.9165</v>
       </c>
       <c r="E36">
         <v>415.73</v>
       </c>
       <c r="F36">
-        <v>0.09282608695652177</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G36">
-        <v>0.7604762741020793</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H36">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I36">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J36">
-        <v>0.3282105799802813</v>
+        <v>0.3100470809880271</v>
       </c>
       <c r="K36">
-        <v>0.002219569629705294</v>
+        <v>0.003033311862727259</v>
       </c>
       <c r="L36">
-        <v>0.0003642431177360964</v>
+        <v>0.000470234744382471</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1894,34 +1894,34 @@
         <v>46</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.5565</v>
+        <v>-0.8195</v>
       </c>
       <c r="E37">
         <v>580.67</v>
       </c>
       <c r="F37">
-        <v>0.09282608695652177</v>
+        <v>0.1487857142857143</v>
       </c>
       <c r="G37">
-        <v>0.7604762741020793</v>
+        <v>0.770375918367347</v>
       </c>
       <c r="H37">
-        <v>516.3195652173913</v>
+        <v>485.2571428571429</v>
       </c>
       <c r="I37">
-        <v>18929.76967372401</v>
+        <v>11260.04180612245</v>
       </c>
       <c r="J37">
-        <v>0.3971711998187932</v>
+        <v>0.2473330447226253</v>
       </c>
       <c r="K37">
-        <v>0.002599174240376039</v>
+        <v>0.002509452829114832</v>
       </c>
       <c r="L37">
-        <v>0.000516158575794126</v>
+        <v>0.0003103353044063887</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1935,31 +1935,31 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>-0.7004999999999999</v>
+        <v>0.8125</v>
       </c>
       <c r="E38">
         <v>457.35</v>
       </c>
       <c r="F38">
-        <v>0.09282608695652177</v>
+        <v>0.03069565217391306</v>
       </c>
       <c r="G38">
-        <v>0.7604762741020793</v>
+        <v>0.7512562769376181</v>
       </c>
       <c r="H38">
-        <v>516.3195652173913</v>
+        <v>525.785652173913</v>
       </c>
       <c r="I38">
-        <v>18929.76967372401</v>
+        <v>32659.54825935727</v>
       </c>
       <c r="J38">
-        <v>0.3024525731906079</v>
+        <v>0.3064405193975432</v>
       </c>
       <c r="K38">
-        <v>0.002645131865157812</v>
+        <v>0.00205478161249674</v>
       </c>
       <c r="L38">
-        <v>0.0004000134695227263</v>
+        <v>0.0003148341722910112</v>
       </c>
     </row>
   </sheetData>

--- a/likelihood_formulas_M3.xlsx
+++ b/likelihood_formulas_M3.xlsx
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.078</v>
+        <v>-0.8935</v>
       </c>
       <c r="E2">
         <v>787</v>
       </c>
       <c r="F2">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G2">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H2">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I2">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J2">
-        <v>0.2218081509276456</v>
+        <v>0.2288165449748879</v>
       </c>
       <c r="K2">
-        <v>0.0007766707070766589</v>
+        <v>0.0007363728859854031</v>
       </c>
       <c r="L2">
-        <v>8.613594670817038E-05</v>
+        <v>8.424714979218349E-05</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -602,34 +602,34 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.158</v>
+        <v>0.6525000000000001</v>
       </c>
       <c r="E3">
         <v>605.67</v>
       </c>
       <c r="F3">
-        <v>0.03069565217391306</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G3">
-        <v>0.7512562769376181</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H3">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I3">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J3">
-        <v>0.4494943539283914</v>
+        <v>0.3375512637677998</v>
       </c>
       <c r="K3">
-        <v>0.002002052752595503</v>
+        <v>0.001283634353414808</v>
       </c>
       <c r="L3">
-        <v>0.0004499557042792366</v>
+        <v>0.0002166461991054655</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -640,34 +640,34 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.8565</v>
+        <v>0.7985</v>
       </c>
       <c r="E4">
         <v>566</v>
       </c>
       <c r="F4">
-        <v>0.03069565217391306</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G4">
-        <v>0.7512562769376181</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H4">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I4">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J4">
-        <v>0.2923483315652065</v>
+        <v>0.2972807654312513</v>
       </c>
       <c r="K4">
-        <v>0.002153538099781536</v>
+        <v>0.001674408517564528</v>
       </c>
       <c r="L4">
-        <v>0.0003147916352166186</v>
+        <v>0.0002488847228730948</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -678,34 +678,34 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>-0.7004999999999999</v>
+        <v>-1.086</v>
       </c>
       <c r="E5">
         <v>361.23</v>
       </c>
       <c r="F5">
-        <v>0.03069565217391306</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G5">
-        <v>0.7512562769376181</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H5">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I5">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J5">
-        <v>0.322462101258693</v>
+        <v>0.2162059425374776</v>
       </c>
       <c r="K5">
-        <v>0.001458359751044404</v>
+        <v>0.002365653186291629</v>
       </c>
       <c r="L5">
-        <v>0.0002351328748564414</v>
+        <v>0.0002557341384294843</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2875</v>
+        <v>-0.8195</v>
       </c>
       <c r="E6">
         <v>572.5</v>
       </c>
       <c r="F6">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G6">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H6">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I6">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J6">
-        <v>0.4405081015324698</v>
+        <v>0.2533900839425123</v>
       </c>
       <c r="K6">
-        <v>0.002134989469137696</v>
+        <v>0.002991803865265321</v>
       </c>
       <c r="L6">
-        <v>0.000470240078920831</v>
+        <v>0.0003790467162795563</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-0.9385</v>
+        <v>1.175</v>
       </c>
       <c r="E7">
         <v>515.6</v>
       </c>
       <c r="F7">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G7">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H7">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I7">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J7">
-        <v>0.2463224265731103</v>
+        <v>0.2171113404245689</v>
       </c>
       <c r="K7">
-        <v>0.002204018224676422</v>
+        <v>0.002805932441133344</v>
       </c>
       <c r="L7">
-        <v>0.0002714495586568274</v>
+        <v>0.0003045998767176216</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>-0.885</v>
+        <v>-0.866</v>
       </c>
       <c r="E8">
         <v>524.11</v>
       </c>
       <c r="F8">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G8">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H8">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I8">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J8">
-        <v>0.2634218459225235</v>
+        <v>0.237871263773045</v>
       </c>
       <c r="K8">
-        <v>0.002207426797913534</v>
+        <v>0.002866110330789884</v>
       </c>
       <c r="L8">
-        <v>0.0002907422209226143</v>
+        <v>0.000340882643248985</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -830,7 +830,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0.5565</v>
@@ -839,25 +839,25 @@
         <v>487.4</v>
       </c>
       <c r="F9">
-        <v>0.1487857142857143</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G9">
-        <v>0.770375918367347</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H9">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I9">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J9">
-        <v>0.4080401550507186</v>
+        <v>0.4146233944928424</v>
       </c>
       <c r="K9">
-        <v>0.00375881985169123</v>
+        <v>0.002540063954743632</v>
       </c>
       <c r="L9">
-        <v>0.0007668747175459042</v>
+        <v>0.000526584969572359</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -868,34 +868,34 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-1.0935</v>
+        <v>1.078</v>
       </c>
       <c r="E10">
         <v>603.33</v>
       </c>
       <c r="F10">
-        <v>0.1487857142857143</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G10">
-        <v>0.770375918367347</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H10">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I10">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J10">
-        <v>0.1669372924942746</v>
+        <v>0.2490067518838181</v>
       </c>
       <c r="K10">
-        <v>0.002024358055023387</v>
+        <v>0.002869858903579923</v>
       </c>
       <c r="L10">
-        <v>0.00016897042637229</v>
+        <v>0.0003573071219726461</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -906,34 +906,34 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-0.6830000000000001</v>
+        <v>-0.158</v>
       </c>
       <c r="E11">
         <v>389</v>
       </c>
       <c r="F11">
-        <v>0.1487857142857143</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G11">
-        <v>0.770375918367347</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H11">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I11">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J11">
-        <v>0.2900953660141034</v>
+        <v>0.447801827728091</v>
       </c>
       <c r="K11">
-        <v>0.002491485100271271</v>
+        <v>0.001262511681530154</v>
       </c>
       <c r="L11">
-        <v>0.0003613841410409396</v>
+        <v>0.0002826775192586343</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.175</v>
+        <v>1.0325</v>
       </c>
       <c r="E12">
         <v>664</v>
       </c>
       <c r="F12">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G12">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H12">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I12">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J12">
-        <v>0.1925442100805093</v>
+        <v>0.2643335615186967</v>
       </c>
       <c r="K12">
-        <v>0.001647750029712754</v>
+        <v>0.002260605118548596</v>
       </c>
       <c r="L12">
-        <v>0.000158632363940589</v>
+        <v>0.0002987769010866729</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -985,31 +985,31 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>-0.8155</v>
+        <v>0.8034999999999999</v>
       </c>
       <c r="E13">
         <v>467</v>
       </c>
       <c r="F13">
-        <v>0.1487857142857143</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G13">
-        <v>0.770375918367347</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H13">
-        <v>485.2571428571429</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I13">
-        <v>11260.04180612245</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J13">
-        <v>0.2485770863875782</v>
+        <v>0.2958566543370183</v>
       </c>
       <c r="K13">
-        <v>0.003704349918550382</v>
+        <v>0.002452804398832106</v>
       </c>
       <c r="L13">
-        <v>0.0004604082548566584</v>
+        <v>0.0003628392515907941</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1020,34 +1020,34 @@
         <v>23</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-0.873</v>
+        <v>-0.8205</v>
       </c>
       <c r="E14">
         <v>564</v>
       </c>
       <c r="F14">
-        <v>0.1487857142857143</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G14">
-        <v>0.770375918367347</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H14">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I14">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J14">
-        <v>0.2308190165259935</v>
+        <v>0.2530540268636747</v>
       </c>
       <c r="K14">
-        <v>0.002854736933616675</v>
+        <v>0.002997895724633833</v>
       </c>
       <c r="L14">
-        <v>0.0003294637857289157</v>
+        <v>0.0003793147926179927</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1058,34 +1058,34 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1.0325</v>
+        <v>0.7595000000000001</v>
       </c>
       <c r="E15">
         <v>484.19</v>
       </c>
       <c r="F15">
-        <v>0.03069565217391306</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G15">
-        <v>0.7512562769376181</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H15">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I15">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J15">
-        <v>0.236007876722867</v>
+        <v>0.3083102922574384</v>
       </c>
       <c r="K15">
-        <v>0.002149815618322943</v>
+        <v>0.00236263060864205</v>
       </c>
       <c r="L15">
-        <v>0.0002536867097130276</v>
+        <v>0.0003642116667234</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>-0.8335</v>
+        <v>0.7865</v>
       </c>
       <c r="E16">
         <v>672.08</v>
       </c>
       <c r="F16">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G16">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H16">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I16">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J16">
-        <v>0.279992869259803</v>
+        <v>0.3471241746255914</v>
       </c>
       <c r="K16">
-        <v>0.001590767958529565</v>
+        <v>0.002155812094303911</v>
       </c>
       <c r="L16">
-        <v>0.0002227018425176261</v>
+        <v>0.0003741672469415564</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1137,31 +1137,31 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.7865</v>
+        <v>1.2045</v>
       </c>
       <c r="E17">
         <v>664.8</v>
       </c>
       <c r="F17">
-        <v>0.1487857142857143</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G17">
-        <v>0.770375918367347</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H17">
-        <v>485.2571428571429</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I17">
-        <v>11260.04180612245</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J17">
-        <v>0.349081822036577</v>
+        <v>0.1826270604710148</v>
       </c>
       <c r="K17">
-        <v>0.0008984283018948918</v>
+        <v>0.0007662731728610819</v>
       </c>
       <c r="L17">
-        <v>0.0001568124942973483</v>
+        <v>6.997110853870859E-05</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6525000000000001</v>
+        <v>-0.776</v>
       </c>
       <c r="E18">
         <v>533</v>
       </c>
       <c r="F18">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G18">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H18">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I18">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J18">
-        <v>0.3558436928339854</v>
+        <v>0.268083231970821</v>
       </c>
       <c r="K18">
-        <v>0.002205763416961644</v>
+        <v>0.00291758370568803</v>
       </c>
       <c r="L18">
-        <v>0.0003924534999048706</v>
+        <v>0.0003910776346831258</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.7185</v>
+        <v>0.8565</v>
       </c>
       <c r="E19">
         <v>695.67</v>
       </c>
       <c r="F19">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G19">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H19">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I19">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J19">
-        <v>0.3359509427485166</v>
+        <v>0.3240254509017073</v>
       </c>
       <c r="K19">
-        <v>0.001419108583427478</v>
+        <v>0.001837666834284827</v>
       </c>
       <c r="L19">
-        <v>0.0002383754332324866</v>
+        <v>0.000297725412293127</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1248,34 +1248,34 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-0.886</v>
+        <v>-0.873</v>
       </c>
       <c r="E20">
         <v>437</v>
       </c>
       <c r="F20">
-        <v>0.03069565217391306</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G20">
-        <v>0.7512562769376181</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H20">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I20">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J20">
-        <v>0.2631007852535654</v>
+        <v>0.2772798482299419</v>
       </c>
       <c r="K20">
-        <v>0.001956559687793658</v>
+        <v>0.002543587021042841</v>
       </c>
       <c r="L20">
-        <v>0.0002573861951269911</v>
+        <v>0.0003526427115772045</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>-1.1685</v>
+        <v>-0.9385</v>
       </c>
       <c r="E21">
         <v>765.75</v>
       </c>
       <c r="F21">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G21">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H21">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I21">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J21">
-        <v>0.1767454715857837</v>
+        <v>0.2142446174893738</v>
       </c>
       <c r="K21">
-        <v>0.0009142123889049103</v>
+        <v>0.0009500993024989927</v>
       </c>
       <c r="L21">
-        <v>8.079144990328212E-05</v>
+        <v>0.0001017768308204087</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1324,34 +1324,34 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1.2175</v>
+        <v>0.2875</v>
       </c>
       <c r="E22">
         <v>637.25</v>
       </c>
       <c r="F22">
-        <v>0.1487857142857143</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G22">
-        <v>0.770375918367347</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H22">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I22">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J22">
-        <v>0.216580217538293</v>
+        <v>0.464381106958384</v>
       </c>
       <c r="K22">
-        <v>0.001347804082810071</v>
+        <v>0.002576587927868517</v>
       </c>
       <c r="L22">
-        <v>0.0001459538507270023</v>
+        <v>0.0005982593770595953</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1365,31 +1365,31 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>-1.086</v>
+        <v>0.9165</v>
       </c>
       <c r="E23">
         <v>819</v>
       </c>
       <c r="F23">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G23">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H23">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I23">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J23">
-        <v>0.2007121328136323</v>
+        <v>0.3037814396598729</v>
       </c>
       <c r="K23">
-        <v>0.0005919370886033759</v>
+        <v>0.0004781291625936006</v>
       </c>
       <c r="L23">
-        <v>5.94044777725378E-05</v>
+        <v>7.26233826780267E-05</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1403,31 +1403,31 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>-0.8205</v>
+        <v>-0.8335</v>
       </c>
       <c r="E24">
         <v>665</v>
       </c>
       <c r="F24">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G24">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H24">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I24">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J24">
-        <v>0.2841794770206726</v>
+        <v>0.2486937672367774</v>
       </c>
       <c r="K24">
-        <v>0.001640766410039123</v>
+        <v>0.002247813677923521</v>
       </c>
       <c r="L24">
-        <v>0.0002331360701590023</v>
+        <v>0.0002795086258045783</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1438,34 +1438,34 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>0.7595000000000001</v>
+        <v>-1.0935</v>
       </c>
       <c r="E25">
         <v>334.75</v>
       </c>
       <c r="F25">
-        <v>0.1487857142857143</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G25">
-        <v>0.770375918367347</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H25">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I25">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J25">
-        <v>0.3568029592621747</v>
+        <v>0.1671089987079768</v>
       </c>
       <c r="K25">
-        <v>0.001374972117058888</v>
+        <v>0.0006796776428129454</v>
       </c>
       <c r="L25">
-        <v>0.0002452970601347943</v>
+        <v>5.67901251673346E-05</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1479,31 +1479,31 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>-0.776</v>
+        <v>-1.1685</v>
       </c>
       <c r="E26">
         <v>307.83</v>
       </c>
       <c r="F26">
-        <v>0.1487857142857143</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G26">
-        <v>0.770375918367347</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H26">
-        <v>485.2571428571429</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I26">
-        <v>11260.04180612245</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J26">
-        <v>0.26091190353275</v>
+        <v>0.1935034485643525</v>
       </c>
       <c r="K26">
-        <v>0.0009290694398948455</v>
+        <v>0.001951353519515639</v>
       </c>
       <c r="L26">
-        <v>0.000121202638038535</v>
+        <v>0.0001887968176972313</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1523,25 +1523,25 @@
         <v>442</v>
       </c>
       <c r="F27">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G27">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H27">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I27">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J27">
-        <v>0.2593769358155739</v>
+        <v>0.289323400249399</v>
       </c>
       <c r="K27">
-        <v>0.001982577043934748</v>
+        <v>0.001969110111845722</v>
       </c>
       <c r="L27">
-        <v>0.0002571173793370466</v>
+        <v>0.0002848548165123392</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1552,34 +1552,34 @@
         <v>37</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>-0.8935</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="E28">
         <v>260.42</v>
       </c>
       <c r="F28">
-        <v>0.03069565217391306</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G28">
-        <v>0.7512562769376181</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H28">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I28">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J28">
-        <v>0.2606942091909677</v>
+        <v>0.3306932254089253</v>
       </c>
       <c r="K28">
-        <v>0.0007511084719421207</v>
+        <v>0.001491225972949411</v>
       </c>
       <c r="L28">
-        <v>9.790481455479365E-05</v>
+        <v>0.0002465691634041018</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1590,34 +1590,34 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1.2045</v>
+        <v>0.899</v>
       </c>
       <c r="E29">
         <v>448.82</v>
       </c>
       <c r="F29">
-        <v>0.1487857142857143</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G29">
-        <v>0.770375918367347</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H29">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I29">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J29">
-        <v>0.220497362994497</v>
+        <v>0.3097137441497064</v>
       </c>
       <c r="K29">
-        <v>0.003544347962998982</v>
+        <v>0.002061137300894501</v>
       </c>
       <c r="L29">
-        <v>0.0003907596896880964</v>
+        <v>0.0003191812753333279</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1628,34 +1628,34 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.8034999999999999</v>
+        <v>0.7185</v>
       </c>
       <c r="E30">
         <v>455.38</v>
       </c>
       <c r="F30">
-        <v>0.1487857142857143</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G30">
-        <v>0.770375918367347</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H30">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I30">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J30">
-        <v>0.3441392028744556</v>
+        <v>0.3686952404279235</v>
       </c>
       <c r="K30">
-        <v>0.00361347989376473</v>
+        <v>0.002148381047210318</v>
       </c>
       <c r="L30">
-        <v>0.0006217700451215334</v>
+        <v>0.0003960489333660011</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1666,34 +1666,34 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0.7985</v>
+        <v>-0.886</v>
       </c>
       <c r="E31">
         <v>89.5</v>
       </c>
       <c r="F31">
-        <v>0.03069565217391306</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G31">
-        <v>0.7512562769376181</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H31">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I31">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J31">
-        <v>0.3108972592602556</v>
+        <v>0.2735259783739499</v>
       </c>
       <c r="K31">
-        <v>0.0001197665300230672</v>
+        <v>0.0002631553925756847</v>
       </c>
       <c r="L31">
-        <v>1.861754296764136E-05</v>
+        <v>3.598991810932253E-05</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1704,34 +1704,34 @@
         <v>41</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.899</v>
+        <v>-0.8155</v>
       </c>
       <c r="E32">
         <v>437.64</v>
       </c>
       <c r="F32">
-        <v>0.1487857142857143</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G32">
-        <v>0.770375918367347</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H32">
-        <v>485.2571428571429</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I32">
-        <v>11260.04180612245</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J32">
-        <v>0.3154388776041464</v>
+        <v>0.2547351949468509</v>
       </c>
       <c r="K32">
-        <v>0.003399491351569605</v>
+        <v>0.001909812000059384</v>
       </c>
       <c r="L32">
-        <v>0.0005361658681820594</v>
+        <v>0.0002432481660734813</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1745,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0.619</v>
+        <v>0.9525</v>
       </c>
       <c r="E33">
         <v>354</v>
       </c>
       <c r="F33">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G33">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H33">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I33">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J33">
-        <v>0.3655752487057839</v>
+        <v>0.2915372353496782</v>
       </c>
       <c r="K33">
-        <v>0.00140506505815771</v>
+        <v>0.0008629631536246874</v>
       </c>
       <c r="L33">
-        <v>0.0002568285040419057</v>
+        <v>0.0001257929460081905</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1783,31 +1783,31 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>-0.866</v>
+        <v>0.619</v>
       </c>
       <c r="E34">
         <v>605</v>
       </c>
       <c r="F34">
-        <v>0.03069565217391306</v>
+        <v>0.1227173913043478</v>
       </c>
       <c r="G34">
-        <v>0.7512562769376181</v>
+        <v>0.7103459962192815</v>
       </c>
       <c r="H34">
-        <v>525.785652173913</v>
+        <v>564.0121739130434</v>
       </c>
       <c r="I34">
-        <v>32659.54825935727</v>
+        <v>17708.71638223063</v>
       </c>
       <c r="J34">
-        <v>0.2695288113114986</v>
+        <v>0.3980010307625247</v>
       </c>
       <c r="K34">
-        <v>0.002005322627863968</v>
+        <v>0.002859012542235306</v>
       </c>
       <c r="L34">
-        <v>0.000270246112092113</v>
+        <v>0.000568944969386319</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1818,34 +1818,34 @@
         <v>44</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0.9525</v>
+        <v>0.8125</v>
       </c>
       <c r="E35">
         <v>217</v>
       </c>
       <c r="F35">
-        <v>0.03069565217391306</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G35">
-        <v>0.7512562769376181</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H35">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I35">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J35">
-        <v>0.2614612490896382</v>
+        <v>0.293288335355421</v>
       </c>
       <c r="K35">
-        <v>0.0005128024280676871</v>
+        <v>0.001075136215301714</v>
       </c>
       <c r="L35">
-        <v>6.703898168938842E-05</v>
+        <v>0.0001576624554330836</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1859,31 +1859,31 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.9165</v>
+        <v>-0.885</v>
       </c>
       <c r="E36">
         <v>415.73</v>
       </c>
       <c r="F36">
-        <v>0.1487857142857143</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G36">
-        <v>0.770375918367347</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H36">
-        <v>485.2571428571429</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I36">
-        <v>11260.04180612245</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J36">
-        <v>0.3100470809880271</v>
+        <v>0.2738148884196286</v>
       </c>
       <c r="K36">
-        <v>0.003033311862727259</v>
+        <v>0.002552272872940157</v>
       </c>
       <c r="L36">
-        <v>0.000470234744382471</v>
+        <v>0.0003494251559602771</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1897,31 +1897,31 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>-0.8195</v>
+        <v>1.2175</v>
       </c>
       <c r="E37">
         <v>580.67</v>
       </c>
       <c r="F37">
-        <v>0.1487857142857143</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G37">
-        <v>0.770375918367347</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H37">
-        <v>485.2571428571429</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I37">
-        <v>11260.04180612245</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J37">
-        <v>0.2473330447226253</v>
+        <v>0.1792155785799328</v>
       </c>
       <c r="K37">
-        <v>0.002509452829114832</v>
+        <v>0.001529130619309109</v>
       </c>
       <c r="L37">
-        <v>0.0003103353044063887</v>
+        <v>0.0001370220143318864</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1932,34 +1932,34 @@
         <v>47</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0.8125</v>
+        <v>-0.7004999999999999</v>
       </c>
       <c r="E38">
         <v>457.35</v>
       </c>
       <c r="F38">
-        <v>0.03069565217391306</v>
+        <v>-0.002392857142857157</v>
       </c>
       <c r="G38">
-        <v>0.7512562769376181</v>
+        <v>0.8365243635204082</v>
       </c>
       <c r="H38">
-        <v>525.785652173913</v>
+        <v>422.4564285714287</v>
       </c>
       <c r="I38">
-        <v>32659.54825935727</v>
+        <v>24387.10149438775</v>
       </c>
       <c r="J38">
-        <v>0.3064405193975432</v>
+        <v>0.3259584295919495</v>
       </c>
       <c r="K38">
-        <v>0.00205478161249674</v>
+        <v>0.002491658866814777</v>
       </c>
       <c r="L38">
-        <v>0.0003148341722910112</v>
+        <v>0.0004060886056529005</v>
       </c>
     </row>
   </sheetData>
